--- a/baysian cascade.xlsx
+++ b/baysian cascade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronal_000\Desktop\all_is\TU\year_4\Thesis\models, data etc\excel sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronal_000\Desktop\all_is\TU\year_4\Thesis\models, data etc\Git results\Experimental-results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2D5723-75DE-411C-A264-B6C3B09B9C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97723E1-F1A1-4CDB-9E93-069E3F5E0008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A67AAB8A-7A11-4BF2-961F-835F6D6B175A}"/>
   </bookViews>
@@ -25,22 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
-  <si>
-    <t>P(X|A)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>p_value</t>
   </si>
@@ -52,15 +42,6 @@
   </si>
   <si>
     <t>r</t>
-  </si>
-  <si>
-    <t>P(B)</t>
-  </si>
-  <si>
-    <t>P(X|B)</t>
-  </si>
-  <si>
-    <t>P(B|X)</t>
   </si>
   <si>
     <t>max</t>
@@ -81,10 +62,22 @@
     <t>CH4 data</t>
   </si>
   <si>
-    <t>hypothetical H2S data</t>
+    <t>P(X|life)</t>
   </si>
   <si>
-    <t>Combined data</t>
+    <t>P(life|X)</t>
+  </si>
+  <si>
+    <t>P(life)</t>
+  </si>
+  <si>
+    <t>P(X|no life)</t>
+  </si>
+  <si>
+    <t>p value cutoff</t>
+  </si>
+  <si>
+    <t>simulations where null hypothesis is rejected [%]</t>
   </si>
 </sst>
 </file>
@@ -220,7 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
@@ -235,9 +228,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
@@ -520,31 +515,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.523949071733529</c:v>
+                  <c:v>0.46415813288878305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.71234486979584621</c:v>
+                  <c:v>0.66090200067819593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80935064721475281</c:v>
+                  <c:v>0.76964591286033956</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.8684849675608961</c:v>
+                  <c:v>0.83864027538726338</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.90830348847814768</c:v>
+                  <c:v>0.88631195998180989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.93694157993818239</c:v>
+                  <c:v>0.92122262486213957</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.95852846953575255</c:v>
+                  <c:v>0.94789133606614318</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97538289513996212</c:v>
+                  <c:v>0.96892866020382795</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.98890735967889465</c:v>
+                  <c:v>0.98594795121128664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,357 +548,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-00C3-4845-8EC6-309426B1E59C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$6:$K$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.35496679802835412</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.55321091267885225</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.67975566888896821</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.76754169645345516</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.83201098372289384</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.88136414919106565</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.92035974243912166</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95194867479125167</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.97805811282024058</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-00C3-4845-8EC6-309426B1E59C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$7:$K$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.26840252724522079</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.45219337910692736</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.58593455850701059</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.68762018554534021</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.76754169645345516</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.83201098372289373</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.88511437407792115</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92961408053992411</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96744433558815435</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-00C3-4845-8EC6-309426B1E59C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$8</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$8:$K$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.21578093232580989</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.38237149943062465</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.51487111352860726</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.62277295243560205</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7123448697958461</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.78789192081919501</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.85246889970405249</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.90830348847814779</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.95705844440859122</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-00C3-4845-8EC6-309426B1E59C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -988,31 +632,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.18041057842337482</c:v>
+                  <c:v>0.14766270171982726</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33122759822144765</c:v>
+                  <c:v>0.28047201036120306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.45918066263970791</c:v>
+                  <c:v>0.4005617592656025</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5691027179246998</c:v>
+                  <c:v>0.50967573221757323</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66455425929923462</c:v>
+                  <c:v>0.60925289152860274</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74821624327591219</c:v>
+                  <c:v>0.70049119444111663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82214587820038232</c:v>
+                  <c:v>0.78439602138791464</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88794805374293639</c:v>
+                  <c:v>0.86181737784656209</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9468931778991212</c:v>
+                  <c:v>0.93347879303922099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1021,369 +665,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-00C3-4845-8EC6-309426B1E59C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$10</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$10:$K$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.15500284071113948</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.29215108205572554</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.41436169876860368</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.523949071733529</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.62277295243560205</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.71234486979584621</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.79390598775177235</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8684849675608961</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9369415799381825</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-00C3-4845-8EC6-309426B1E59C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$11:$K$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.13586814174272913</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.26132170145411671</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.37751392938582012</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.48543386474613287</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.58593455850701059</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.67975566888896821</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.76754169645345505</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.84985680990697798</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.92719698379086002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-00C3-4845-8EC6-309426B1E59C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$4:$K$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$12:$K$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.12093858665409853</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.23637782055400047</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.34668446504459333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.45219337910692736</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.55321091267885225</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.65001787740882511</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.74287215351653746</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.83201098372289384</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91765299721505811</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-00C3-4845-8EC6-309426B1E59C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1474,31 +755,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0.10896519893178679</c:v>
+                  <c:v>8.77967476012433E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.21578093232580989</c:v>
+                  <c:v>0.17800712393825921</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.32051018007527665</c:v>
+                  <c:v>0.27073204611751628</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.42321348543533832</c:v>
+                  <c:v>0.36607813673929374</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.523949071733529</c:v>
+                  <c:v>0.46415813288878305</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62277295243560193</c:v>
+                  <c:v>0.56509133082052765</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.71973903500395597</c:v>
+                  <c:v>0.66900407002402784</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81489921895327599</c:v>
+                  <c:v>0.77603026080031856</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.90830348847814779</c:v>
+                  <c:v>0.88631195998180989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1522,6 +803,844 @@
         <c:smooth val="0"/>
         <c:axId val="547272168"/>
         <c:axId val="547269872"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>calculations!$B$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>calculations!$C$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>calculations!$C$6:$K$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.30221739804620867</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.49354266903013416</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.6255483042687493</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.72211930344572062</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.79583503470804406</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.85395063531473625</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.90094433071386115</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.93972999035679838</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.97228535003602901</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-00C3-4845-8EC6-309426B1E59C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>calculations!$B$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>calculations!$C$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>calculations!$C$7:$K$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.22404874123462465</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.39381693271367957</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.52689916193565833</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.63402732595966171</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.72211930344572062</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.79583503470804406</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.85842823884729125</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.91223964427802484</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.95899622765294401</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-00C3-4845-8EC6-309426B1E59C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>calculations!$B$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>calculations!$C$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>calculations!$C$8:$K$8</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.17800712393825921</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.32761808707345769</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.45512571028255627</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.56509133082052765</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.66090200067819593</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.74512552567860324</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.81974403653187522</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.88631195998181</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.94606547651151496</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000C-00C3-4845-8EC6-309426B1E59C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>calculations!$B$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>calculations!$C$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>calculations!$C$10:$K$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.12615703281765808</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.24518807397156875</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.35768030831345199</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.46415813288878305</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.56509133082052765</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.66090200067819593</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.75197045692553599</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.83864027538726338</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.92122262486213968</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000E-00C3-4845-8EC6-309426B1E59C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="6"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>calculations!$B$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>calculations!$C$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>calculations!$C$11:$K$11</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.11011921577490254</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2177896971728685</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.32309222523070125</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.42610406646261478</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.52689916193565822</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.6255483042687493</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.72211930344572062</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.81667714225853771</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.9092841221294905</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-00C3-4845-8EC6-309426B1E59C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>calculations!$B$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="circle"/>
+                  <c:size val="5"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>calculations!$C$4:$K$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>calculations!$C$12:$K$12</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>9.7699132788610948E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.19589908533520953</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.29460371844611277</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.39381693271367957</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.49354266903013416</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.59378490910937332</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.6945476760169017</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.79583503470804418</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.89765109257458675</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000010-00C3-4845-8EC6-309426B1E59C}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="547272168"/>
@@ -1551,7 +1670,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>P(B)</a:t>
+                  <a:t>P(life)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1672,7 +1791,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>P(B|X)</a:t>
+                  <a:t>P(life|X)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1834,2992 +1953,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Chance</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> the hypothesis is true based on hypothetical Hydrogen sulfide data</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.16561777952078002"/>
-          <c:y val="5.0890585241730284E-3"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10297868239969332"/>
-          <c:y val="0.20123940614293442"/>
-          <c:w val="0.74913383501813147"/>
-          <c:h val="0.64901378153418887"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$18:$K$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.10000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.40000000000000008</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69999999999999984</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.80000000000000016</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-2762-473F-84CD-AC0EC22F32AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$19</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$19:$K$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>5.2631578947368425E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1111111111111111</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.17647058823529413</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.25000000000000006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.42857142857142849</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.53846153846153844</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.66666666666666674</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.81818181818181812</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-2762-473F-84CD-AC0EC22F32AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$20</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$20:$K$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>3.5714285714285719E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.6923076923076941E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.125</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.18181818181818185</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.33333333333333331</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.43749999999999994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.57142857142857151</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.75000000000000011</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-2762-473F-84CD-AC0EC22F32AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$21</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$21:$K$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2.7027027027027029E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.8823529411764705E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.6774193548387108E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.14285714285714288</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.27272727272727271</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.36842105263157893</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.50000000000000011</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6923076923076924</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-2762-473F-84CD-AC0EC22F32AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$22</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$22:$K$22</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2.1739130434782612E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.7619047619047623E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.8947368421052627E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.11764705882352945</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.16666666666666669</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.23076923076923075</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.31818181818181812</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.44444444444444453</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6428571428571429</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-2762-473F-84CD-AC0EC22F32AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$23</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$23:$K$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.8181818181818184E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0000000000000008E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.6666666666666666E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.10000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14285714285714288</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.27999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.40000000000000013</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.60000000000000009</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-2762-473F-84CD-AC0EC22F32AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$24</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$24:$K$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.5625000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4482758620689662E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.7692307692307702E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.695652173913046E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17647058823529413</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.24999999999999994</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.36363636363636376</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.56250000000000011</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000F-2762-473F-84CD-AC0EC22F32AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$25:$K$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.3698630136986302E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0303030303030304E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.0847457627118647E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.6923076923076941E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.11111111111111112</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.15789473684210523</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.22580645161290316</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.33333333333333343</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.52941176470588247</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000010-2762-473F-84CD-AC0EC22F32AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$17:$K$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$26:$K$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1.2195121951219514E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7027027027027029E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.5454545454545449E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.8965517241379309E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14285714285714285</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.20588235294117641</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.30769230769230776</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.50000000000000011</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000011-2762-473F-84CD-AC0EC22F32AB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="547272168"/>
-        <c:axId val="547269872"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="547272168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>P(B)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="547269872"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="547269872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>P(B|X)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="547272168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.88766815863114301"/>
-          <c:y val="0.14037510386578561"/>
-          <c:w val="0.11233181951841083"/>
-          <c:h val="0.80756546653042416"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Chance</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> the hypothesis is true based on both data sets</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.13136981165025605"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.10297877148918028"/>
-          <c:y val="0.1810194989994067"/>
-          <c:w val="0.74913383501813147"/>
-          <c:h val="0.64901378153418887"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$30:$K$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$31:$K$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.57155416456017605</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.76987589583667693</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.86654545305032693</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.92109098053653771</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9541517442390739</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97477663197527298</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98755854086072581</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9950765790279924</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.99889073596788946</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-72F3-4802-8596-1B50D42AC6FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$30:$K$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$32:$K$32</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.38891591392159874</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.60285414460342424</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.7362693743791503</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.82565627234009131</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.88800732248192915</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.93220808525203747</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.96324295804882543</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98398289159708385</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.99601056596731652</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-72F3-4802-8596-1B50D42AC6FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$30:$K$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$33:$K$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.29453100841503432</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.49433234994485609</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6376927386936343</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.74441651544618748</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.82565627234009131</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.88800732248192915</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.93537683541883065</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.96983460594568172</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.99186108389703864</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-72F3-4802-8596-1B50D42AC6FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$30:$K$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$34:$K$34</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.2369760422629501</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.41870258769941149</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.56181907028390332</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.67666253065908744</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.76987589583667693</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.84573957877759631</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.90682246297098057</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9541517442390739</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.98678721366418187</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-72F3-4802-8596-1B50D42AC6FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$30:$K$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$35:$K$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.19822773976199715</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.36307390306804543</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.50187692611552048</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.61979651581591155</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.72046188274936218</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.80632018713531706</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.87873582604571521</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9377489187460758</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.98103327782111471</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-72F3-4802-8596-1B50D42AC6FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$30:$K$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$36:$K$36</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.17036642542548242</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.32046503877349664</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.45340425218403002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.57155416456017605</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.67666253065908744</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.76987589583667693</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.85161231118127612</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92109098053653771</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.97477663197527298</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-72F3-4802-8596-1B50D42AC6FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.7</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$30:$K$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$37:$K$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.149370202027999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.28679336692121615</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4134265873058689</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.53017874607255622</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.6376927386936343</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.7362693743791503</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.82565627234009131</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.90445433357716787</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96814868040850122</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-72F3-4802-8596-1B50D42AC6FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$30:$K$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$38:$K$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.13298052382322045</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2595178865978186</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.37990389902537669</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.49433234994485609</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.60285414460342424</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.70527821255480005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8009332801418354</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.88800732248192926</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.96124846927767438</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-72F3-4802-8596-1B50D42AC6FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>calculations!$B$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>calculations!$C$30:$K$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>calculations!$C$39:$K$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.11983147699359431</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2369760422629501</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35139608098094588</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.46299186575014262</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.57155416456017605</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.67666253065908732</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.77743982191490624</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.87185330542919104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.9541517442390739</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-72F3-4802-8596-1B50D42AC6FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="547272168"/>
-        <c:axId val="547269872"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="547272168"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>P(B)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="547269872"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="547269872"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-GB"/>
-                  <a:t>P(B|X)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="547272168"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.89810520260309923"/>
-          <c:y val="0.14037509679106203"/>
-          <c:w val="9.8109620473876183E-2"/>
-          <c:h val="0.85937269335585931"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -4904,86 +2037,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5527,1012 +2580,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7078,82 +3125,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafiek 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A066BFB6-126B-4ADD-86AE-67C1BDF60145}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafiek 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB415F5D-4013-44C8-9FE7-F8DCEA5F7537}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7537,10 +3508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79348A7B-B529-444F-A074-D4DFC92DEC18}">
-  <dimension ref="A2:K39"/>
+  <dimension ref="A2:M43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7549,25 +3520,25 @@
     <col min="2" max="2" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <f>1-'CH4 data'!H4</f>
-        <v>0.99055402806865689</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <f>'CH4 data'!H9</f>
+        <v>0.77959999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" s="13"/>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -7578,9 +3549,8 @@
       <c r="J3" s="2"/>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
-      <c r="B4" s="14"/>
       <c r="C4" s="4">
         <v>0.1</v>
       </c>
@@ -7609,1260 +3579,823 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B5" s="8">
         <v>0.1</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5">
         <f t="shared" ref="C5:K13" si="0">($D$2*C$4)/($B5 *(1-C$4) + $D$2*C$4)</f>
-        <v>0.523949071733529</v>
-      </c>
-      <c r="D5" s="14">
+        <v>0.46415813288878305</v>
+      </c>
+      <c r="D5">
         <f t="shared" si="0"/>
-        <v>0.71234486979584621</v>
-      </c>
-      <c r="E5" s="14">
+        <v>0.66090200067819593</v>
+      </c>
+      <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.80935064721475281</v>
-      </c>
-      <c r="F5" s="14">
+        <v>0.76964591286033956</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>0.8684849675608961</v>
-      </c>
-      <c r="G5" s="14">
+        <v>0.83864027538726338</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
-        <v>0.90830348847814768</v>
-      </c>
-      <c r="H5" s="14">
+        <v>0.88631195998180989</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="0"/>
-        <v>0.93694157993818239</v>
-      </c>
-      <c r="I5" s="14">
+        <v>0.92122262486213957</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="0"/>
-        <v>0.95852846953575255</v>
-      </c>
-      <c r="J5" s="14">
+        <v>0.94789133606614318</v>
+      </c>
+      <c r="J5">
         <f t="shared" si="0"/>
-        <v>0.97538289513996212</v>
+        <v>0.96892866020382795</v>
       </c>
       <c r="K5" s="10">
         <f t="shared" si="0"/>
-        <v>0.98890735967889465</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.98594795121128664</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="10">
         <v>0.2</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6">
         <f t="shared" si="0"/>
-        <v>0.35496679802835412</v>
-      </c>
-      <c r="D6" s="14">
+        <v>0.30221739804620867</v>
+      </c>
+      <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.55321091267885225</v>
-      </c>
-      <c r="E6" s="14">
+        <v>0.49354266903013416</v>
+      </c>
+      <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.67975566888896821</v>
-      </c>
-      <c r="F6" s="14">
+        <v>0.6255483042687493</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>0.76754169645345516</v>
-      </c>
-      <c r="G6" s="14">
+        <v>0.72211930344572062</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
-        <v>0.83201098372289384</v>
-      </c>
-      <c r="H6" s="14">
+        <v>0.79583503470804406</v>
+      </c>
+      <c r="H6">
         <f t="shared" si="0"/>
-        <v>0.88136414919106565</v>
-      </c>
-      <c r="I6" s="14">
+        <v>0.85395063531473625</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="0"/>
-        <v>0.92035974243912166</v>
-      </c>
-      <c r="J6" s="14">
+        <v>0.90094433071386115</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
-        <v>0.95194867479125167</v>
+        <v>0.93972999035679838</v>
       </c>
       <c r="K6" s="10">
         <f t="shared" si="0"/>
-        <v>0.97805811282024058</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.97228535003602901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
         <v>0.3</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7">
         <f t="shared" si="0"/>
-        <v>0.26840252724522079</v>
-      </c>
-      <c r="D7" s="14">
+        <v>0.22404874123462465</v>
+      </c>
+      <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.45219337910692736</v>
-      </c>
-      <c r="E7" s="14">
+        <v>0.39381693271367957</v>
+      </c>
+      <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.58593455850701059</v>
-      </c>
-      <c r="F7" s="14">
+        <v>0.52689916193565833</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>0.68762018554534021</v>
-      </c>
-      <c r="G7" s="14">
+        <v>0.63402732595966171</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
-        <v>0.76754169645345516</v>
-      </c>
-      <c r="H7" s="14">
+        <v>0.72211930344572062</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="0"/>
-        <v>0.83201098372289373</v>
-      </c>
-      <c r="I7" s="14">
+        <v>0.79583503470804406</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="0"/>
-        <v>0.88511437407792115</v>
-      </c>
-      <c r="J7" s="14">
+        <v>0.85842823884729125</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="0"/>
-        <v>0.92961408053992411</v>
+        <v>0.91223964427802484</v>
       </c>
       <c r="K7" s="10">
         <f t="shared" si="0"/>
-        <v>0.96744433558815435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.95899622765294401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="10">
         <v>0.4</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8">
         <f t="shared" si="0"/>
-        <v>0.21578093232580989</v>
-      </c>
-      <c r="D8" s="14">
+        <v>0.17800712393825921</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>0.38237149943062465</v>
-      </c>
-      <c r="E8" s="14">
+        <v>0.32761808707345769</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.51487111352860726</v>
-      </c>
-      <c r="F8" s="14">
+        <v>0.45512571028255627</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>0.62277295243560205</v>
-      </c>
-      <c r="G8" s="14">
+        <v>0.56509133082052765</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>0.7123448697958461</v>
-      </c>
-      <c r="H8" s="14">
+        <v>0.66090200067819593</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>0.78789192081919501</v>
-      </c>
-      <c r="I8" s="14">
+        <v>0.74512552567860324</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="0"/>
-        <v>0.85246889970405249</v>
-      </c>
-      <c r="J8" s="14">
+        <v>0.81974403653187522</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
-        <v>0.90830348847814779</v>
+        <v>0.88631195998181</v>
       </c>
       <c r="K8" s="10">
         <f t="shared" si="0"/>
-        <v>0.95705844440859122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.94606547651151496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10">
         <v>0.5</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9">
         <f t="shared" si="0"/>
-        <v>0.18041057842337482</v>
-      </c>
-      <c r="D9" s="14">
+        <v>0.14766270171982726</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.33122759822144765</v>
-      </c>
-      <c r="E9" s="14">
+        <v>0.28047201036120306</v>
+      </c>
+      <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.45918066263970791</v>
-      </c>
-      <c r="F9" s="14">
+        <v>0.4005617592656025</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>0.5691027179246998</v>
-      </c>
-      <c r="G9" s="14">
+        <v>0.50967573221757323</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
-        <v>0.66455425929923462</v>
-      </c>
-      <c r="H9" s="14">
+        <v>0.60925289152860274</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="0"/>
-        <v>0.74821624327591219</v>
-      </c>
-      <c r="I9" s="14">
+        <v>0.70049119444111663</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="0"/>
-        <v>0.82214587820038232</v>
-      </c>
-      <c r="J9" s="14">
+        <v>0.78439602138791464</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="0"/>
-        <v>0.88794805374293639</v>
+        <v>0.86181737784656209</v>
       </c>
       <c r="K9" s="10">
         <f t="shared" si="0"/>
-        <v>0.9468931778991212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.93347879303922099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="10">
         <v>0.6</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.15500284071113948</v>
-      </c>
-      <c r="D10" s="14">
+        <v>0.12615703281765808</v>
+      </c>
+      <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.29215108205572554</v>
-      </c>
-      <c r="E10" s="14">
+        <v>0.24518807397156875</v>
+      </c>
+      <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.41436169876860368</v>
-      </c>
-      <c r="F10" s="14">
+        <v>0.35768030831345199</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>0.523949071733529</v>
-      </c>
-      <c r="G10" s="14">
+        <v>0.46415813288878305</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="0"/>
-        <v>0.62277295243560205</v>
-      </c>
-      <c r="H10" s="14">
+        <v>0.56509133082052765</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="0"/>
-        <v>0.71234486979584621</v>
-      </c>
-      <c r="I10" s="14">
+        <v>0.66090200067819593</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="0"/>
-        <v>0.79390598775177235</v>
-      </c>
-      <c r="J10" s="14">
+        <v>0.75197045692553599</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="0"/>
-        <v>0.8684849675608961</v>
+        <v>0.83864027538726338</v>
       </c>
       <c r="K10" s="10">
         <f t="shared" si="0"/>
-        <v>0.9369415799381825</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.92122262486213968</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="10">
         <v>0.7</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.13586814174272913</v>
-      </c>
-      <c r="D11" s="14">
+        <v>0.11011921577490254</v>
+      </c>
+      <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.26132170145411671</v>
-      </c>
-      <c r="E11" s="14">
+        <v>0.2177896971728685</v>
+      </c>
+      <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.37751392938582012</v>
-      </c>
-      <c r="F11" s="14">
+        <v>0.32309222523070125</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>0.48543386474613287</v>
-      </c>
-      <c r="G11" s="14">
+        <v>0.42610406646261478</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="0"/>
-        <v>0.58593455850701059</v>
-      </c>
-      <c r="H11" s="14">
+        <v>0.52689916193565822</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="0"/>
-        <v>0.67975566888896821</v>
-      </c>
-      <c r="I11" s="14">
+        <v>0.6255483042687493</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="0"/>
-        <v>0.76754169645345505</v>
-      </c>
-      <c r="J11" s="14">
+        <v>0.72211930344572062</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="0"/>
-        <v>0.84985680990697798</v>
+        <v>0.81667714225853771</v>
       </c>
       <c r="K11" s="10">
         <f t="shared" si="0"/>
-        <v>0.92719698379086002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.9092841221294905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="10">
         <v>0.8</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.12093858665409853</v>
-      </c>
-      <c r="D12" s="14">
+        <v>9.7699132788610948E-2</v>
+      </c>
+      <c r="D12">
         <f t="shared" si="0"/>
-        <v>0.23637782055400047</v>
-      </c>
-      <c r="E12" s="14">
+        <v>0.19589908533520953</v>
+      </c>
+      <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.34668446504459333</v>
-      </c>
-      <c r="F12" s="14">
+        <v>0.29460371844611277</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
-        <v>0.45219337910692736</v>
-      </c>
-      <c r="G12" s="14">
+        <v>0.39381693271367957</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="0"/>
-        <v>0.55321091267885225</v>
-      </c>
-      <c r="H12" s="14">
+        <v>0.49354266903013416</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="0"/>
-        <v>0.65001787740882511</v>
-      </c>
-      <c r="I12" s="14">
+        <v>0.59378490910937332</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="0"/>
-        <v>0.74287215351653746</v>
-      </c>
-      <c r="J12" s="14">
+        <v>0.6945476760169017</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="0"/>
-        <v>0.83201098372289384</v>
+        <v>0.79583503470804418</v>
       </c>
       <c r="K12" s="10">
         <f t="shared" si="0"/>
-        <v>0.91765299721505811</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.89765109257458675</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12">
         <v>0.9</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <f t="shared" si="0"/>
-        <v>0.10896519893178679</v>
-      </c>
-      <c r="D13" s="15">
+        <v>8.77967476012433E-2</v>
+      </c>
+      <c r="D13" s="14">
         <f t="shared" si="0"/>
-        <v>0.21578093232580989</v>
-      </c>
-      <c r="E13" s="15">
+        <v>0.17800712393825921</v>
+      </c>
+      <c r="E13" s="14">
         <f t="shared" si="0"/>
-        <v>0.32051018007527665</v>
-      </c>
-      <c r="F13" s="15">
+        <v>0.27073204611751628</v>
+      </c>
+      <c r="F13" s="14">
         <f t="shared" si="0"/>
-        <v>0.42321348543533832</v>
-      </c>
-      <c r="G13" s="15">
+        <v>0.36607813673929374</v>
+      </c>
+      <c r="G13" s="14">
         <f t="shared" si="0"/>
-        <v>0.523949071733529</v>
-      </c>
-      <c r="H13" s="15">
+        <v>0.46415813288878305</v>
+      </c>
+      <c r="H13" s="14">
         <f t="shared" si="0"/>
-        <v>0.62277295243560193</v>
-      </c>
-      <c r="I13" s="15">
+        <v>0.56509133082052765</v>
+      </c>
+      <c r="I13" s="14">
         <f t="shared" si="0"/>
-        <v>0.71973903500395597</v>
-      </c>
-      <c r="J13" s="15">
+        <v>0.66900407002402784</v>
+      </c>
+      <c r="J13" s="14">
         <f t="shared" si="0"/>
-        <v>0.81489921895327599</v>
+        <v>0.77603026080031856</v>
       </c>
       <c r="K13" s="12">
         <f t="shared" si="0"/>
-        <v>0.90830348847814779</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C18" s="14">
-        <f>($D$15*C$4)/($B18 *(1-C$4) + $D$15*C$4)</f>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="D18" s="14">
-        <f t="shared" ref="C18:K26" si="1">($D$15*D$4)/($B18 *(1-D$4) + $D$15*D$4)</f>
-        <v>0.2</v>
-      </c>
-      <c r="E18" s="14">
-        <f t="shared" si="1"/>
-        <v>0.3</v>
-      </c>
-      <c r="F18" s="14">
-        <f t="shared" si="1"/>
-        <v>0.40000000000000008</v>
-      </c>
-      <c r="G18" s="14">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="H18" s="14">
-        <f t="shared" si="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="I18" s="14">
-        <f t="shared" si="1"/>
-        <v>0.69999999999999984</v>
-      </c>
-      <c r="J18" s="14">
-        <f t="shared" si="1"/>
-        <v>0.80000000000000016</v>
-      </c>
-      <c r="K18" s="14">
-        <f t="shared" si="1"/>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="C19" s="14">
-        <f t="shared" si="1"/>
-        <v>5.2631578947368425E-2</v>
-      </c>
-      <c r="D19" s="14">
-        <f t="shared" si="1"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="E19" s="14">
-        <f t="shared" si="1"/>
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="F19" s="14">
-        <f t="shared" si="1"/>
-        <v>0.25000000000000006</v>
-      </c>
-      <c r="G19" s="14">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="H19" s="14">
-        <f t="shared" si="1"/>
-        <v>0.42857142857142849</v>
-      </c>
-      <c r="I19" s="14">
-        <f t="shared" si="1"/>
-        <v>0.53846153846153844</v>
-      </c>
-      <c r="J19" s="14">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="K19" s="14">
-        <f t="shared" si="1"/>
-        <v>0.81818181818181812</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="C20" s="14">
-        <f t="shared" si="1"/>
-        <v>3.5714285714285719E-2</v>
-      </c>
-      <c r="D20" s="14">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076941E-2</v>
-      </c>
-      <c r="E20" s="14">
-        <f t="shared" si="1"/>
-        <v>0.125</v>
-      </c>
-      <c r="F20" s="14">
-        <f t="shared" si="1"/>
-        <v>0.18181818181818185</v>
-      </c>
-      <c r="G20" s="14">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="H20" s="14">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="I20" s="14">
-        <f t="shared" si="1"/>
-        <v>0.43749999999999994</v>
-      </c>
-      <c r="J20" s="14">
-        <f t="shared" si="1"/>
-        <v>0.57142857142857151</v>
-      </c>
-      <c r="K20" s="14">
-        <f t="shared" si="1"/>
-        <v>0.75000000000000011</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="C21" s="14">
-        <f t="shared" si="1"/>
-        <v>2.7027027027027029E-2</v>
-      </c>
-      <c r="D21" s="14">
-        <f t="shared" si="1"/>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="E21" s="14">
-        <f t="shared" si="1"/>
-        <v>9.6774193548387108E-2</v>
-      </c>
-      <c r="F21" s="14">
-        <f t="shared" si="1"/>
-        <v>0.14285714285714288</v>
-      </c>
-      <c r="G21" s="14">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="H21" s="14">
-        <f t="shared" si="1"/>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="I21" s="14">
-        <f t="shared" si="1"/>
-        <v>0.36842105263157893</v>
-      </c>
-      <c r="J21" s="14">
-        <f t="shared" si="1"/>
-        <v>0.50000000000000011</v>
-      </c>
-      <c r="K21" s="14">
-        <f t="shared" si="1"/>
-        <v>0.6923076923076924</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="C22" s="14">
-        <f t="shared" si="1"/>
-        <v>2.1739130434782612E-2</v>
-      </c>
-      <c r="D22" s="14">
-        <f t="shared" si="1"/>
-        <v>4.7619047619047623E-2</v>
-      </c>
-      <c r="E22" s="14">
-        <f t="shared" si="1"/>
-        <v>7.8947368421052627E-2</v>
-      </c>
-      <c r="F22" s="14">
-        <f t="shared" si="1"/>
-        <v>0.11764705882352945</v>
-      </c>
-      <c r="G22" s="14">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666669</v>
-      </c>
-      <c r="H22" s="14">
-        <f t="shared" si="1"/>
-        <v>0.23076923076923075</v>
-      </c>
-      <c r="I22" s="14">
-        <f t="shared" si="1"/>
-        <v>0.31818181818181812</v>
-      </c>
-      <c r="J22" s="14">
-        <f t="shared" si="1"/>
-        <v>0.44444444444444453</v>
-      </c>
-      <c r="K22" s="14">
-        <f t="shared" si="1"/>
-        <v>0.6428571428571429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="C23" s="14">
-        <f t="shared" si="1"/>
-        <v>1.8181818181818184E-2</v>
-      </c>
-      <c r="D23" s="14">
-        <f t="shared" si="1"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="E23" s="14">
-        <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="F23" s="14">
-        <f t="shared" si="1"/>
-        <v>0.10000000000000002</v>
-      </c>
-      <c r="G23" s="14">
-        <f t="shared" si="1"/>
-        <v>0.14285714285714288</v>
-      </c>
-      <c r="H23" s="14">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="I23" s="14">
-        <f t="shared" si="1"/>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="J23" s="14">
-        <f t="shared" si="1"/>
-        <v>0.40000000000000013</v>
-      </c>
-      <c r="K23" s="14">
-        <f t="shared" si="1"/>
-        <v>0.60000000000000009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="C24" s="14">
-        <f t="shared" si="1"/>
-        <v>1.5625000000000003E-2</v>
-      </c>
-      <c r="D24" s="14">
-        <f t="shared" si="1"/>
-        <v>3.4482758620689662E-2</v>
-      </c>
-      <c r="E24" s="14">
-        <f t="shared" si="1"/>
-        <v>5.7692307692307702E-2</v>
-      </c>
-      <c r="F24" s="14">
-        <f t="shared" si="1"/>
-        <v>8.695652173913046E-2</v>
-      </c>
-      <c r="G24" s="14">
-        <f t="shared" si="1"/>
-        <v>0.12500000000000003</v>
-      </c>
-      <c r="H24" s="14">
-        <f t="shared" si="1"/>
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="I24" s="14">
-        <f t="shared" si="1"/>
-        <v>0.24999999999999994</v>
-      </c>
-      <c r="J24" s="14">
-        <f t="shared" si="1"/>
-        <v>0.36363636363636376</v>
-      </c>
-      <c r="K24" s="14">
-        <f t="shared" si="1"/>
-        <v>0.56250000000000011</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
-      <c r="B25" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="C25" s="14">
-        <f t="shared" si="1"/>
-        <v>1.3698630136986302E-2</v>
-      </c>
-      <c r="D25" s="14">
-        <f t="shared" si="1"/>
-        <v>3.0303030303030304E-2</v>
-      </c>
-      <c r="E25" s="14">
-        <f t="shared" si="1"/>
-        <v>5.0847457627118647E-2</v>
-      </c>
-      <c r="F25" s="14">
-        <f t="shared" si="1"/>
-        <v>7.6923076923076941E-2</v>
-      </c>
-      <c r="G25" s="14">
-        <f t="shared" si="1"/>
-        <v>0.11111111111111112</v>
-      </c>
-      <c r="H25" s="14">
-        <f t="shared" si="1"/>
-        <v>0.15789473684210523</v>
-      </c>
-      <c r="I25" s="14">
-        <f t="shared" si="1"/>
-        <v>0.22580645161290316</v>
-      </c>
-      <c r="J25" s="14">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333343</v>
-      </c>
-      <c r="K25" s="14">
-        <f t="shared" si="1"/>
-        <v>0.52941176470588247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="C26" s="14">
-        <f t="shared" si="1"/>
-        <v>1.2195121951219514E-2</v>
-      </c>
-      <c r="D26" s="14">
-        <f t="shared" si="1"/>
-        <v>2.7027027027027029E-2</v>
-      </c>
-      <c r="E26" s="14">
-        <f t="shared" si="1"/>
-        <v>4.5454545454545449E-2</v>
-      </c>
-      <c r="F26" s="14">
-        <f t="shared" si="1"/>
-        <v>6.8965517241379309E-2</v>
-      </c>
-      <c r="G26" s="14">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="H26" s="14">
-        <f t="shared" si="1"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="I26" s="14">
-        <f t="shared" si="1"/>
-        <v>0.20588235294117641</v>
-      </c>
-      <c r="J26" s="14">
-        <f t="shared" si="1"/>
-        <v>0.30769230769230776</v>
-      </c>
-      <c r="K26" s="14">
-        <f t="shared" si="1"/>
-        <v>0.50000000000000011</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="D30" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="E30" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="F30" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="G30" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H30" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="I30" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="J30" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="K30" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="16">
-        <f>1- (1-C5)*(1-C18)</f>
-        <v>0.57155416456017605</v>
-      </c>
-      <c r="D31" s="16">
-        <f t="shared" ref="C31:K31" si="2">1- (1-D5)*(1-D18)</f>
-        <v>0.76987589583667693</v>
-      </c>
-      <c r="E31" s="16">
-        <f t="shared" si="2"/>
-        <v>0.86654545305032693</v>
-      </c>
-      <c r="F31" s="16">
-        <f t="shared" si="2"/>
-        <v>0.92109098053653771</v>
-      </c>
-      <c r="G31" s="16">
-        <f t="shared" si="2"/>
-        <v>0.9541517442390739</v>
-      </c>
-      <c r="H31" s="16">
-        <f t="shared" si="2"/>
-        <v>0.97477663197527298</v>
-      </c>
-      <c r="I31" s="16">
-        <f t="shared" si="2"/>
-        <v>0.98755854086072581</v>
-      </c>
-      <c r="J31" s="16">
-        <f t="shared" si="2"/>
-        <v>0.9950765790279924</v>
-      </c>
-      <c r="K31" s="16">
-        <f t="shared" si="2"/>
-        <v>0.99889073596788946</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="9"/>
-      <c r="B32" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="C32" s="16">
-        <f t="shared" ref="C32" si="3">1- (1-C6)*(1-C19)</f>
-        <v>0.38891591392159874</v>
-      </c>
-      <c r="D32" s="16">
-        <f t="shared" ref="D32:K32" si="4">1- (1-D6)*(1-D19)</f>
-        <v>0.60285414460342424</v>
-      </c>
-      <c r="E32" s="16">
-        <f t="shared" si="4"/>
-        <v>0.7362693743791503</v>
-      </c>
-      <c r="F32" s="16">
-        <f t="shared" si="4"/>
-        <v>0.82565627234009131</v>
-      </c>
-      <c r="G32" s="16">
-        <f t="shared" si="4"/>
-        <v>0.88800732248192915</v>
-      </c>
-      <c r="H32" s="16">
-        <f t="shared" si="4"/>
-        <v>0.93220808525203747</v>
-      </c>
-      <c r="I32" s="16">
-        <f t="shared" si="4"/>
-        <v>0.96324295804882543</v>
-      </c>
-      <c r="J32" s="16">
-        <f t="shared" si="4"/>
-        <v>0.98398289159708385</v>
-      </c>
-      <c r="K32" s="16">
-        <f t="shared" si="4"/>
-        <v>0.99601056596731652</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="10">
-        <v>0.3</v>
-      </c>
-      <c r="C33" s="16">
-        <f t="shared" ref="C33" si="5">1- (1-C7)*(1-C20)</f>
-        <v>0.29453100841503432</v>
-      </c>
-      <c r="D33" s="16">
-        <f>1- (1-D7)*(1-D20)</f>
-        <v>0.49433234994485609</v>
-      </c>
-      <c r="E33" s="16">
-        <f t="shared" ref="E33:K33" si="6">1- (1-E7)*(1-E20)</f>
-        <v>0.6376927386936343</v>
-      </c>
-      <c r="F33" s="16">
-        <f t="shared" si="6"/>
-        <v>0.74441651544618748</v>
-      </c>
-      <c r="G33" s="16">
-        <f t="shared" si="6"/>
-        <v>0.82565627234009131</v>
-      </c>
-      <c r="H33" s="16">
-        <f t="shared" si="6"/>
-        <v>0.88800732248192915</v>
-      </c>
-      <c r="I33" s="16">
-        <f t="shared" si="6"/>
-        <v>0.93537683541883065</v>
-      </c>
-      <c r="J33" s="16">
-        <f t="shared" si="6"/>
-        <v>0.96983460594568172</v>
-      </c>
-      <c r="K33" s="16">
-        <f t="shared" si="6"/>
-        <v>0.99186108389703864</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
-      <c r="B34" s="10">
-        <v>0.4</v>
-      </c>
-      <c r="C34" s="16">
-        <f t="shared" ref="C34" si="7">1- (1-C8)*(1-C21)</f>
-        <v>0.2369760422629501</v>
-      </c>
-      <c r="D34" s="16">
-        <f t="shared" ref="D34:K34" si="8">1- (1-D8)*(1-D21)</f>
-        <v>0.41870258769941149</v>
-      </c>
-      <c r="E34" s="16">
-        <f t="shared" si="8"/>
-        <v>0.56181907028390332</v>
-      </c>
-      <c r="F34" s="16">
-        <f t="shared" si="8"/>
-        <v>0.67666253065908744</v>
-      </c>
-      <c r="G34" s="16">
-        <f t="shared" si="8"/>
-        <v>0.76987589583667693</v>
-      </c>
-      <c r="H34" s="16">
-        <f t="shared" si="8"/>
-        <v>0.84573957877759631</v>
-      </c>
-      <c r="I34" s="16">
-        <f t="shared" si="8"/>
-        <v>0.90682246297098057</v>
-      </c>
-      <c r="J34" s="16">
-        <f t="shared" si="8"/>
-        <v>0.9541517442390739</v>
-      </c>
-      <c r="K34" s="16">
-        <f t="shared" si="8"/>
-        <v>0.98678721366418187</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="C35" s="16">
-        <f t="shared" ref="C35" si="9">1- (1-C9)*(1-C22)</f>
-        <v>0.19822773976199715</v>
-      </c>
-      <c r="D35" s="16">
-        <f t="shared" ref="D35:K35" si="10">1- (1-D9)*(1-D22)</f>
-        <v>0.36307390306804543</v>
-      </c>
-      <c r="E35" s="16">
-        <f t="shared" si="10"/>
-        <v>0.50187692611552048</v>
-      </c>
-      <c r="F35" s="16">
-        <f t="shared" si="10"/>
-        <v>0.61979651581591155</v>
-      </c>
-      <c r="G35" s="16">
-        <f t="shared" si="10"/>
-        <v>0.72046188274936218</v>
-      </c>
-      <c r="H35" s="16">
-        <f t="shared" si="10"/>
-        <v>0.80632018713531706</v>
-      </c>
-      <c r="I35" s="16">
-        <f t="shared" si="10"/>
-        <v>0.87873582604571521</v>
-      </c>
-      <c r="J35" s="16">
-        <f t="shared" si="10"/>
-        <v>0.9377489187460758</v>
-      </c>
-      <c r="K35" s="16">
-        <f t="shared" si="10"/>
-        <v>0.98103327782111471</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="C36" s="16">
-        <f t="shared" ref="C36" si="11">1- (1-C10)*(1-C23)</f>
-        <v>0.17036642542548242</v>
-      </c>
-      <c r="D36" s="16">
-        <f t="shared" ref="D36:K36" si="12">1- (1-D10)*(1-D23)</f>
-        <v>0.32046503877349664</v>
-      </c>
-      <c r="E36" s="16">
-        <f t="shared" si="12"/>
-        <v>0.45340425218403002</v>
-      </c>
-      <c r="F36" s="16">
-        <f t="shared" si="12"/>
-        <v>0.57155416456017605</v>
-      </c>
-      <c r="G36" s="16">
-        <f t="shared" si="12"/>
-        <v>0.67666253065908744</v>
-      </c>
-      <c r="H36" s="16">
-        <f t="shared" si="12"/>
-        <v>0.76987589583667693</v>
-      </c>
-      <c r="I36" s="16">
-        <f t="shared" si="12"/>
-        <v>0.85161231118127612</v>
-      </c>
-      <c r="J36" s="16">
-        <f t="shared" si="12"/>
-        <v>0.92109098053653771</v>
-      </c>
-      <c r="K36" s="16">
-        <f t="shared" si="12"/>
-        <v>0.97477663197527298</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
-      <c r="B37" s="10">
-        <v>0.7</v>
-      </c>
-      <c r="C37" s="16">
-        <f t="shared" ref="C37" si="13">1- (1-C11)*(1-C24)</f>
-        <v>0.149370202027999</v>
-      </c>
-      <c r="D37" s="16">
-        <f t="shared" ref="D37:K37" si="14">1- (1-D11)*(1-D24)</f>
-        <v>0.28679336692121615</v>
-      </c>
-      <c r="E37" s="16">
-        <f t="shared" si="14"/>
-        <v>0.4134265873058689</v>
-      </c>
-      <c r="F37" s="16">
-        <f t="shared" si="14"/>
-        <v>0.53017874607255622</v>
-      </c>
-      <c r="G37" s="16">
-        <f t="shared" si="14"/>
-        <v>0.6376927386936343</v>
-      </c>
-      <c r="H37" s="16">
-        <f t="shared" si="14"/>
-        <v>0.7362693743791503</v>
-      </c>
-      <c r="I37" s="16">
-        <f t="shared" si="14"/>
-        <v>0.82565627234009131</v>
-      </c>
-      <c r="J37" s="16">
-        <f t="shared" si="14"/>
-        <v>0.90445433357716787</v>
-      </c>
-      <c r="K37" s="16">
-        <f t="shared" si="14"/>
-        <v>0.96814868040850122</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
-      <c r="B38" s="10">
-        <v>0.8</v>
-      </c>
-      <c r="C38" s="16">
-        <f t="shared" ref="C38" si="15">1- (1-C12)*(1-C25)</f>
-        <v>0.13298052382322045</v>
-      </c>
-      <c r="D38" s="16">
-        <f t="shared" ref="D38:K38" si="16">1- (1-D12)*(1-D25)</f>
-        <v>0.2595178865978186</v>
-      </c>
-      <c r="E38" s="16">
-        <f t="shared" si="16"/>
-        <v>0.37990389902537669</v>
-      </c>
-      <c r="F38" s="16">
-        <f t="shared" si="16"/>
-        <v>0.49433234994485609</v>
-      </c>
-      <c r="G38" s="16">
-        <f t="shared" si="16"/>
-        <v>0.60285414460342424</v>
-      </c>
-      <c r="H38" s="16">
-        <f t="shared" si="16"/>
-        <v>0.70527821255480005</v>
-      </c>
-      <c r="I38" s="16">
-        <f t="shared" si="16"/>
-        <v>0.8009332801418354</v>
-      </c>
-      <c r="J38" s="16">
-        <f t="shared" si="16"/>
-        <v>0.88800732248192926</v>
-      </c>
-      <c r="K38" s="16">
-        <f t="shared" si="16"/>
-        <v>0.96124846927767438</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12">
-        <v>0.9</v>
-      </c>
-      <c r="C39" s="16">
-        <f t="shared" ref="C39" si="17">1- (1-C13)*(1-C26)</f>
-        <v>0.11983147699359431</v>
-      </c>
-      <c r="D39" s="16">
-        <f t="shared" ref="D39:K39" si="18">1- (1-D13)*(1-D26)</f>
-        <v>0.2369760422629501</v>
-      </c>
-      <c r="E39" s="16">
-        <f t="shared" si="18"/>
-        <v>0.35139608098094588</v>
-      </c>
-      <c r="F39" s="16">
-        <f t="shared" si="18"/>
-        <v>0.46299186575014262</v>
-      </c>
-      <c r="G39" s="16">
-        <f t="shared" si="18"/>
-        <v>0.57155416456017605</v>
-      </c>
-      <c r="H39" s="16">
-        <f t="shared" si="18"/>
-        <v>0.67666253065908732</v>
-      </c>
-      <c r="I39" s="16">
-        <f t="shared" si="18"/>
-        <v>0.77743982191490624</v>
-      </c>
-      <c r="J39" s="16">
-        <f t="shared" si="18"/>
-        <v>0.87185330542919104</v>
-      </c>
-      <c r="K39" s="16">
-        <f t="shared" si="18"/>
-        <v>0.9541517442390739</v>
-      </c>
+        <v>0.88631195998180989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:K14 C28:K28 C41:K135 C31:K39">
+  <conditionalFormatting sqref="C4:K14 C43:K135">
     <cfRule type="cellIs" dxfId="11" priority="9" operator="between">
       <formula>0.95</formula>
       <formula>1</formula>
@@ -8882,46 +4415,6 @@
       <formula>0.6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:K26">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="between">
-      <formula>0.95</formula>
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C17:K26">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="between">
-      <formula>0.8</formula>
-      <formula>0.95</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="between">
-      <formula>0.6</formula>
-      <formula>0.8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="between">
-      <formula>0</formula>
-      <formula>0.6</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:K39">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="between">
-      <formula>0.95</formula>
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30:K39">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="between">
-      <formula>0.8</formula>
-      <formula>0.95</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="between">
-      <formula>0.6</formula>
-      <formula>0.8</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
-      <formula>0</formula>
-      <formula>0.6</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8933,39 +4426,41 @@
   <dimension ref="A1:K2501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>3</v>
-      </c>
-      <c r="K1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -8982,7 +4477,7 @@
         <v>4851.2707553765604</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H2">
         <f>MAX(A2:A2501)</f>
@@ -9015,7 +4510,7 @@
         <v>4345.6255523202799</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H3">
         <f>MIN(A2:A82501)</f>
@@ -9048,7 +4543,7 @@
         <v>5630.1416385001703</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H4">
         <f>AVERAGE(A2:A2501)</f>
@@ -9081,7 +4576,7 @@
         <v>5197.7140592129399</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <f>_xlfn.STDEV.P(A2:A2501)</f>
@@ -9141,6 +4636,12 @@
       <c r="D8">
         <v>4320.6681374650298</v>
       </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -9154,6 +4655,14 @@
       </c>
       <c r="D9">
         <v>5476.27596172213</v>
+      </c>
+      <c r="G9">
+        <f>0.01</f>
+        <v>0.01</v>
+      </c>
+      <c r="H9">
+        <f>COUNTIF(A2:A2501,"&lt;0.01")/COUNTIF(A2:A2501,"&gt;0")</f>
+        <v>0.77959999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
